--- a/data/EmployeesList.xlsx
+++ b/data/EmployeesList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="159">
   <si>
     <t>Anastasiya</t>
   </si>
@@ -37,6 +37,462 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Katya</t>
+  </si>
+  <si>
+    <t>Mikhailovich</t>
+  </si>
+  <si>
+    <t>SENIOR_QA</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron </t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Odinson</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Grimm</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>McCoy</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Osborn</t>
+  </si>
+  <si>
+    <t>Norrin</t>
+  </si>
+  <si>
+    <t>Radd</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Braddock</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Eisenhardt</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Octavius</t>
+  </si>
+  <si>
+    <t>Pietro</t>
+  </si>
+  <si>
+    <t>Maximoff</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Cage</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Walters</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Danvers</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Pryde</t>
+  </si>
+  <si>
+    <t>Reilly</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Romanova</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Fury</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Namor</t>
+  </si>
+  <si>
+    <t>McKenzie</t>
+  </si>
+  <si>
+    <t>Ororo</t>
+  </si>
+  <si>
+    <t>Munroe</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Murdock</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Strange</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Rasputin</t>
+  </si>
+  <si>
+    <t>Pym</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Elektra</t>
+  </si>
+  <si>
+    <t>Natchios</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Potts</t>
+  </si>
+  <si>
+    <t>JUNIOR_DEV</t>
+  </si>
+  <si>
+    <t>MIDDLE_DEV</t>
+  </si>
+  <si>
+    <t>SENIOR_DEV</t>
+  </si>
+  <si>
+    <t>LEAD_DEV</t>
+  </si>
+  <si>
+    <t>MIDDLE_QA</t>
+  </si>
+  <si>
+    <t>LEAD_QA</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -85,7 +541,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -93,14 +549,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,9 +597,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +634,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,30 +843,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="25" width="6.7265625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -424,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -484,9 +939,3785 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B51"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -496,7 +4727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -508,7 +4739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/EmployeesList.xlsx
+++ b/data/EmployeesList.xlsx
@@ -843,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4711,9 +4711,6 @@
       <c r="Y50" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/EmployeesList.xlsx
+++ b/data/EmployeesList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="160">
   <si>
     <t>Anastasiya</t>
   </si>
@@ -231,72 +231,24 @@
     <t>Odinson</t>
   </si>
   <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Grimm</t>
-  </si>
-  <si>
-    <t>Reed</t>
-  </si>
-  <si>
-    <t>Richards</t>
-  </si>
-  <si>
     <t>Banner</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Summers</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
     <t>Henry</t>
   </si>
   <si>
-    <t>McCoy</t>
-  </si>
-  <si>
     <t>Norman</t>
   </si>
   <si>
     <t>Osborn</t>
   </si>
   <si>
-    <t>Norrin</t>
-  </si>
-  <si>
-    <t>Radd</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Braddock</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Eisenhardt</t>
-  </si>
-  <si>
     <t>Otto</t>
   </si>
   <si>
     <t>Octavius</t>
   </si>
   <si>
-    <t>Pietro</t>
-  </si>
-  <si>
     <t>Maximoff</t>
   </si>
   <si>
@@ -315,9 +267,6 @@
     <t>Wilson</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Hulk</t>
   </si>
   <si>
@@ -399,33 +348,6 @@
     <t>Wanda</t>
   </si>
   <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>Namor</t>
-  </si>
-  <si>
-    <t>McKenzie</t>
-  </si>
-  <si>
-    <t>Ororo</t>
-  </si>
-  <si>
-    <t>Munroe</t>
-  </si>
-  <si>
-    <t>Clinton</t>
-  </si>
-  <si>
-    <t>Barton</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Murdock</t>
-  </si>
-  <si>
     <t>Stephen</t>
   </si>
   <si>
@@ -493,6 +415,87 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Quill</t>
+  </si>
+  <si>
+    <t>Gamora</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>Drax</t>
+  </si>
+  <si>
+    <t>Destroyer</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Raccoon</t>
+  </si>
+  <si>
+    <t>Odin</t>
+  </si>
+  <si>
+    <t>Asgardian</t>
+  </si>
+  <si>
+    <t>Loki</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Goddess</t>
+  </si>
+  <si>
+    <t>Hela</t>
+  </si>
+  <si>
+    <t>Heimdall</t>
+  </si>
+  <si>
+    <t>Protector</t>
+  </si>
+  <si>
+    <t>Grand</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Scrapper</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Weying</t>
+  </si>
+  <si>
+    <t>Carlton</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -557,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -597,9 +600,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -845,24 +848,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="25" width="6.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="25" width="6.81640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -879,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -939,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>60</v>
@@ -1016,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,13 +1030,13 @@
         <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -1093,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,13 +1107,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -1170,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,13 +1184,13 @@
         <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
@@ -1247,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,13 +1261,13 @@
         <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -1324,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1335,13 +1338,13 @@
         <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>5</v>
@@ -1401,24 +1404,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>5</v>
@@ -1478,24 +1481,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>56</v>
@@ -1555,24 +1558,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1632,24 +1635,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1709,24 +1712,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>56</v>
@@ -1786,24 +1789,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>56</v>
@@ -1863,24 +1866,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>56</v>
@@ -1940,24 +1943,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>56</v>
@@ -2017,24 +2020,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
@@ -2094,24 +2097,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>56</v>
@@ -2171,24 +2174,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>56</v>
@@ -2248,24 +2251,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>56</v>
@@ -2325,15 +2328,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -2342,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>60</v>
@@ -2402,24 +2405,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>60</v>
@@ -2479,24 +2482,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>60</v>
@@ -2556,24 +2559,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>60</v>
@@ -2633,24 +2636,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>60</v>
@@ -2710,24 +2713,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>60</v>
@@ -2787,18 +2790,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
@@ -2864,18 +2867,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>3</v>
@@ -2941,18 +2944,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>3</v>
@@ -3018,18 +3021,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>3</v>
@@ -3095,18 +3098,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>3</v>
@@ -3172,18 +3175,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>3</v>
@@ -3249,18 +3252,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>3</v>
@@ -3326,15 +3329,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
@@ -3403,15 +3406,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -3420,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>56</v>
@@ -3480,15 +3483,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
@@ -3497,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>56</v>
@@ -3557,15 +3560,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
@@ -3574,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>56</v>
@@ -3634,15 +3637,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
@@ -3651,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>60</v>
@@ -3711,15 +3714,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -3728,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>56</v>
@@ -3788,15 +3791,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -3805,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>60</v>
@@ -3865,15 +3868,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -3882,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>56</v>
@@ -3942,15 +3945,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -3959,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>60</v>
@@ -4019,7 +4022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -4036,7 +4039,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>56</v>
@@ -4096,15 +4099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -4173,18 +4176,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>3</v>
@@ -4250,18 +4253,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>3</v>
@@ -4327,18 +4330,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>3</v>
@@ -4404,18 +4407,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>3</v>
@@ -4481,18 +4484,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>3</v>
@@ -4558,24 +4561,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>60</v>
@@ -4635,24 +4638,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>60</v>
@@ -4724,7 +4727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4736,7 +4739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
